--- a/ExcelOperations/read/data.xlsx
+++ b/ExcelOperations/read/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Eclipse\ExcelOperations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Eclipse\Selenium\ExcelOperations\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC069E-6E70-4CA6-B45C-22854614C28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB0CEB-BB3B-4615-904D-26B92F6646D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55BB2915-FB67-479A-B62B-349172EDEB6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{55BB2915-FB67-479A-B62B-349172EDEB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="email" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>user</t>
   </si>
@@ -101,13 +102,46 @@
   </si>
   <si>
     <t>pass10</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>one@ms.com</t>
+  </si>
+  <si>
+    <t>two@ms.com</t>
+  </si>
+  <si>
+    <t>two password</t>
+  </si>
+  <si>
+    <t>one password</t>
+  </si>
+  <si>
+    <t>three@ms.com</t>
+  </si>
+  <si>
+    <t>three password</t>
+  </si>
+  <si>
+    <t>four@ms.com</t>
+  </si>
+  <si>
+    <t>six@ms.com</t>
+  </si>
+  <si>
+    <t>six password</t>
+  </si>
+  <si>
+    <t>five password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +151,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,13 +181,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAA2078-4CAA-4F5F-801B-70111187983F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -556,6 +601,95 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C532F4-CCCC-4297-98EB-A2766DE5A6F8}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E47E538C-48B6-4872-8233-CB7126CD4A69}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{48D7A115-DBD7-4502-AA9A-85AB0747CB59}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3B8A633C-5EA1-4F4D-B52D-F947D80376F2}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{6368212A-B6E2-4966-A689-B4769B1D93B7}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{CD813114-1072-4CB9-8528-0AFFBBA6231F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
